--- a/task-repo.xlsx
+++ b/task-repo.xlsx
@@ -1,24 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="AllTasks" sheetId="1" r:id="rId1"/>
+    <sheet name="FinJournalReqs" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
+    <t>TASK DESCRIPTION</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>DEPENDENCY</t>
+  </si>
+  <si>
+    <t>REMARKS</t>
+  </si>
+  <si>
+    <t>REQUIREMENT</t>
+  </si>
+  <si>
+    <t>User shall be able to input a financial transaction at atime with all relevant information</t>
+  </si>
+  <si>
+    <t>User shall be able to use multiple accounts, payment options, transaction types and so on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User shall be able to setup alerts for say due dates, account limits and any other upcoming events </t>
+  </si>
+  <si>
+    <t>User shall be able to create and update personal budgets</t>
+  </si>
+  <si>
+    <t>User shall be able to view overall summary such as financial snapshot, upcoming events, goals in progress etc</t>
+  </si>
+  <si>
+    <t>User shall be able to generate any custom reports such as savings over a period, earnings over a period and so on</t>
+  </si>
+  <si>
+    <t>Develop data model for FinJournal application</t>
+  </si>
+  <si>
+    <t>Create a database and insert sample data</t>
+  </si>
+  <si>
+    <t>Good candidate for Home page</t>
+  </si>
+  <si>
+    <t>Create Mockup screens for the UI</t>
+  </si>
+  <si>
+    <t>Consider the tool : Pencil</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -46,14 +113,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,36 +416,149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="73.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="91.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="102.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="107.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
